--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Weclapp_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Weclapp_DE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\Weclapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F1F59D-9BF2-4717-AA61-4C9112C08580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA08D4B-E7E5-497C-BBA3-85B26EC501D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -34,6 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{2C72CE68-AF38-4531-9CB1-723AC1B25A05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld ausgefüllt sein muss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{E2987E7F-F958-4281-A706-8D1AF6D846EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld nicht benötigt wird</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="73">
   <si>
@@ -262,9 +300,6 @@
     <t>nicht benötigt</t>
   </si>
   <si>
-    <t>weclapp: Custom Entity</t>
-  </si>
-  <si>
     <t>weclapp: Interessent (Person)</t>
   </si>
   <si>
@@ -284,13 +319,16 @@
   </si>
   <si>
     <t>weclapp: Lieferant</t>
+  </si>
+  <si>
+    <t>weclapp: Additional Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +404,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -405,7 +450,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -422,52 +467,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -952,69 +951,6 @@
       <right style="thick">
         <color rgb="FFFE6C36"/>
       </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FFFE6C36"/>
@@ -1281,11 +1217,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1302,131 +1371,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1435,16 +1493,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -2575,11 +2645,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:BD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2616,14 +2686,14 @@
     </row>
     <row r="2" spans="1:56" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:56" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:56" ht="79.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" ht="81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2635,198 +2705,198 @@
         <v>64</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="81" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="O4" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="S4" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="W4" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="AA4" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="O4" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="S4" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="W4" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="AA4" s="81" t="s">
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AE4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="81"/>
-      <c r="AE4" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="85"/>
     </row>
-    <row r="5" spans="1:56" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:56" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:56" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="W6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="X6" s="13" t="s">
+      <c r="X6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Y6" s="14" t="s">
+      <c r="Y6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AA6" s="12" t="s">
+      <c r="AA6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AB6" s="13" t="s">
+      <c r="AB6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AC6" s="14" t="s">
+      <c r="AC6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AE6" s="69" t="s">
+      <c r="AE6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AF6" s="70" t="s">
+      <c r="AF6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AG6" s="71" t="s">
+      <c r="AG6" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="22"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="22"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="22"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="22"/>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="65"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="21"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="21"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="21"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="61"/>
     </row>
-    <row r="8" spans="1:56" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:56" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="G8" s="20" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="G8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="22"/>
-      <c r="O8" s="20" t="s">
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="O8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="P8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="22" t="s">
+      <c r="Q8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="61"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="20" t="s">
+      <c r="R8" s="57"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="X8" s="21" t="s">
+      <c r="X8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="22" t="s">
+      <c r="Y8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="35"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="63"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="34"/>
+      <c r="AE8" s="58"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="59"/>
       <c r="AH8"/>
       <c r="AI8"/>
       <c r="AJ8"/>
@@ -2852,385 +2922,385 @@
       <c r="BD8"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="G9" s="33" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="G9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="22"/>
-      <c r="O9" s="20" t="s">
+      <c r="I9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
+      <c r="O9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="22"/>
-      <c r="W9" s="20" t="s">
+      <c r="Q9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="19"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="21"/>
+      <c r="W9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="X9" s="21" t="s">
+      <c r="X9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="Y9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="35"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="63"/>
+      <c r="Y9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="34"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="59"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="G10" s="33" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="G10" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="22"/>
-      <c r="O10" s="20" t="s">
+      <c r="I10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
+      <c r="O10" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="S10" s="20"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="22"/>
-      <c r="W10" s="20" t="s">
+      <c r="Q10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="19"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="21"/>
+      <c r="W10" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="X10" s="21" t="s">
+      <c r="X10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Y10" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="35"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="63"/>
+      <c r="Y10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="34"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="59"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="G11" s="33" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="G11" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="22"/>
-      <c r="O11" s="20" t="s">
+      <c r="I11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="O11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="P11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="S11" s="20"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="22"/>
-      <c r="W11" s="20" t="s">
+      <c r="Q11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="19"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21"/>
+      <c r="W11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="X11" s="21" t="s">
+      <c r="X11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="35"/>
-      <c r="AE11" s="62"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="63"/>
+      <c r="Y11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="34"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="59"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="G12" s="33" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="G12" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22"/>
-      <c r="O12" s="20" t="s">
+      <c r="I12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="O12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="S12" s="20"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="22"/>
-      <c r="W12" s="20" t="s">
+      <c r="Q12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="19"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="21"/>
+      <c r="W12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="X12" s="21" t="s">
+      <c r="X12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Y12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="35"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="63"/>
+      <c r="Y12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="34"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="59"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="G13" s="33" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="G13" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="33" t="s">
+      <c r="I13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" s="20"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="22"/>
-      <c r="S13" s="20" t="s">
+      <c r="M13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="19"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21"/>
+      <c r="S13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T13" s="21" t="s">
+      <c r="T13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="U13" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="W13" s="20"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="22"/>
-      <c r="AA13" s="20" t="s">
+      <c r="U13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="19"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="21"/>
+      <c r="AA13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AB13" s="34" t="s">
+      <c r="AB13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AC13" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE13" s="62"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="63"/>
+      <c r="AC13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="59"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="G14" s="33" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="G14" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="33" t="s">
+      <c r="I14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="33" t="s">
+      <c r="M14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="P14" s="34" t="s">
+      <c r="P14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="S14" s="33" t="s">
+      <c r="Q14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S14" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="T14" s="34" t="s">
+      <c r="T14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="U14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="W14" s="33" t="s">
+      <c r="U14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W14" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="X14" s="34" t="s">
+      <c r="X14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Y14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA14" s="33" t="s">
+      <c r="Y14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA14" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="AB14" s="34" t="s">
+      <c r="AB14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AC14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="63"/>
+      <c r="AC14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="59"/>
     </row>
-    <row r="15" spans="1:56" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:56" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="G15" s="33" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="G15" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="33" t="s">
+      <c r="I15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="34" t="s">
+      <c r="L15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" s="33" t="s">
+      <c r="M15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="34" t="s">
+      <c r="P15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" s="61"/>
-      <c r="S15" s="33" t="s">
+      <c r="Q15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="57"/>
+      <c r="S15" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="T15" s="34" t="s">
+      <c r="T15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="U15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="33" t="s">
+      <c r="U15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" s="57"/>
+      <c r="W15" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="X15" s="34" t="s">
+      <c r="X15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Y15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="33" t="s">
+      <c r="Y15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="AB15" s="34" t="s">
+      <c r="AB15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AC15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="63"/>
+      <c r="AC15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="59"/>
       <c r="AH15"/>
       <c r="AI15"/>
       <c r="AJ15"/>
@@ -3256,403 +3326,403 @@
       <c r="BD15"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="G16" s="33" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="G16" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="33" t="s">
+      <c r="I16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="34" t="s">
+      <c r="L16" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16" s="33" t="s">
+      <c r="M16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="P16" s="34" t="s">
+      <c r="P16" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="Q16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="S16" s="33" t="s">
+      <c r="Q16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S16" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="T16" s="34" t="s">
+      <c r="T16" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="U16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="W16" s="33" t="s">
+      <c r="U16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W16" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="X16" s="34" t="s">
+      <c r="X16" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="Y16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA16" s="33" t="s">
+      <c r="Y16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA16" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="AB16" s="34" t="s">
+      <c r="AB16" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AC16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="63"/>
+      <c r="AC16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="59"/>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="G17" s="33" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="G17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="33" t="s">
+      <c r="I17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="L17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="33" t="s">
+      <c r="M17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" s="33" t="s">
+      <c r="Q17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="T17" s="34" t="s">
+      <c r="T17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="U17" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="W17" s="33" t="s">
+      <c r="U17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="X17" s="34" t="s">
+      <c r="X17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="Y17" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA17" s="33" t="s">
+      <c r="Y17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="AB17" s="34" t="s">
+      <c r="AB17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AC17" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE17" s="62"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="63"/>
+      <c r="AC17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="59"/>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="G18" s="33" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="G18" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="33" t="s">
+      <c r="I18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="L18" s="34" t="s">
+      <c r="L18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" s="33" t="s">
+      <c r="M18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Q18" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="S18" s="33" t="s">
+      <c r="Q18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S18" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="T18" s="34" t="s">
+      <c r="T18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="U18" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="W18" s="33" t="s">
+      <c r="U18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="X18" s="34" t="s">
+      <c r="X18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Y18" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA18" s="33" t="s">
+      <c r="Y18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA18" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="AB18" s="34" t="s">
+      <c r="AB18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="AC18" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="63"/>
+      <c r="AC18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="59"/>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="G19" s="33" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="G19" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="33" t="s">
+      <c r="I19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" s="33" t="s">
+      <c r="M19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="P19" s="21" t="s">
+      <c r="P19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="S19" s="33" t="s">
+      <c r="Q19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="T19" s="21" t="s">
+      <c r="T19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="U19" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="W19" s="33" t="s">
+      <c r="U19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="X19" s="21" t="s">
+      <c r="X19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Y19" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA19" s="33" t="s">
+      <c r="Y19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA19" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AB19" s="34" t="s">
+      <c r="AB19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AC19" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="63"/>
+      <c r="AC19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="59"/>
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="G20" s="33" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="G20" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="33" t="s">
+      <c r="I20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" s="33" t="s">
+      <c r="M20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="21" t="s">
+      <c r="P20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="S20" s="33" t="s">
+      <c r="Q20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="T20" s="21" t="s">
+      <c r="T20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U20" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="W20" s="33" t="s">
+      <c r="U20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="X20" s="21" t="s">
+      <c r="X20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="Y20" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA20" s="33" t="s">
+      <c r="Y20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA20" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AB20" s="21" t="s">
+      <c r="AB20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AC20" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="63"/>
+      <c r="AC20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="59"/>
     </row>
-    <row r="21" spans="1:56" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+    <row r="21" spans="1:56" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="G21" s="33" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="G21" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="33" t="s">
+      <c r="I21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" s="33" t="s">
+      <c r="M21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="21" t="s">
+      <c r="P21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Q21" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="R21" s="61"/>
-      <c r="S21" s="33" t="s">
+      <c r="Q21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="57"/>
+      <c r="S21" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="21" t="s">
+      <c r="T21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="U21" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="V21" s="61"/>
-      <c r="W21" s="33" t="s">
+      <c r="U21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="V21" s="57"/>
+      <c r="W21" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="X21" s="21" t="s">
+      <c r="X21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Y21" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="33" t="s">
+      <c r="Y21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AB21" s="21" t="s">
+      <c r="AB21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AC21" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE21" s="62"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="63"/>
+      <c r="AC21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="59"/>
       <c r="AH21"/>
       <c r="AI21"/>
       <c r="AJ21"/>
@@ -3678,740 +3748,740 @@
       <c r="BD21"/>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="G22" s="33" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="G22" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="33" t="s">
+      <c r="I22" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="L22" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22" s="33" t="s">
+      <c r="M22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="21" t="s">
+      <c r="P22" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="S22" s="33" t="s">
+      <c r="Q22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S22" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="T22" s="21" t="s">
+      <c r="T22" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="U22" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="W22" s="33" t="s">
+      <c r="U22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W22" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="X22" s="21" t="s">
+      <c r="X22" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Y22" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA22" s="33" t="s">
+      <c r="Y22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA22" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AB22" s="21" t="s">
+      <c r="AB22" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="AC22" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE22" s="62"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="63"/>
+      <c r="AC22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="59"/>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="G23" s="20" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="G23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="20" t="s">
+      <c r="I23" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="L23" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O23" s="20" t="s">
+      <c r="M23" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="P23" s="21" t="s">
+      <c r="P23" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q23" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="S23" s="20" t="s">
+      <c r="Q23" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="21" t="s">
+      <c r="T23" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="U23" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="W23" s="20" t="s">
+      <c r="U23" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="X23" s="21" t="s">
+      <c r="X23" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Y23" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA23" s="20" t="s">
+      <c r="Y23" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AB23" s="21" t="s">
+      <c r="AB23" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AC23" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE23" s="64"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="65"/>
+      <c r="AC23" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="61"/>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="G24" s="20" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="G24" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="22"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="22"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="22"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="22"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="22"/>
-      <c r="AE24" s="64"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="65"/>
+      <c r="I24" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="21"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="21"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="21"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="21"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="61"/>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
-      <c r="K25" s="20" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="K25" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="M25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="O25" s="20" t="s">
+      <c r="O25" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="P25" s="21" t="s">
+      <c r="P25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="Q25" s="22" t="s">
+      <c r="Q25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="S25" s="20"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="22"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="22"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="22"/>
-      <c r="AE25" s="64"/>
-      <c r="AF25" s="21"/>
-      <c r="AG25" s="65"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="21"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="21"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="21"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="61"/>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
-      <c r="K26" s="20" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="K26" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="L26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="M26" s="22" t="s">
+      <c r="M26" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="O26" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="P26" s="21" t="s">
+      <c r="P26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="22" t="s">
+      <c r="Q26" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="S26" s="20" t="s">
+      <c r="S26" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="T26" s="21" t="s">
+      <c r="T26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="U26" s="22" t="s">
+      <c r="U26" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="W26" s="20" t="s">
+      <c r="W26" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="X26" s="21" t="s">
+      <c r="X26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="Y26" s="22" t="s">
+      <c r="Y26" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="22"/>
-      <c r="AE26" s="64"/>
-      <c r="AF26" s="21"/>
-      <c r="AG26" s="65"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="21"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="61"/>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="22"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="22"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="22"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="22"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="22"/>
-      <c r="AE27" s="64"/>
-      <c r="AF27" s="21"/>
-      <c r="AG27" s="65"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="21"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="21"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="21"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="61"/>
     </row>
     <row r="28" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="50"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="50"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="50"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="50"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="49"/>
-      <c r="AC28" s="50"/>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="67"/>
-      <c r="AG28" s="68"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="49"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="49"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="49"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="49"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="49"/>
+      <c r="AE28" s="62"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="64"/>
     </row>
     <row r="29" spans="1:56" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="51"/>
-      <c r="I29" s="52"/>
-      <c r="K29" s="51"/>
-      <c r="M29" s="52"/>
-      <c r="O29" s="51"/>
-      <c r="Q29" s="52"/>
-      <c r="S29" s="51"/>
-      <c r="U29" s="52"/>
-      <c r="W29" s="51"/>
-      <c r="Y29" s="52"/>
-      <c r="AA29" s="51"/>
-      <c r="AC29" s="52"/>
-      <c r="AE29" s="51"/>
-      <c r="AG29" s="52"/>
+      <c r="G29" s="50"/>
+      <c r="I29" s="51"/>
+      <c r="K29" s="50"/>
+      <c r="M29" s="51"/>
+      <c r="O29" s="50"/>
+      <c r="Q29" s="51"/>
+      <c r="S29" s="50"/>
+      <c r="U29" s="51"/>
+      <c r="W29" s="50"/>
+      <c r="Y29" s="51"/>
+      <c r="AA29" s="50"/>
+      <c r="AC29" s="51"/>
+      <c r="AE29" s="50"/>
+      <c r="AG29" s="51"/>
     </row>
     <row r="30" spans="1:56" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54" t="s">
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M30" s="14" t="s">
+      <c r="M30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O30" s="12" t="s">
+      <c r="O30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P30" s="13" t="s">
+      <c r="P30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Q30" s="14" t="s">
+      <c r="Q30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S30" s="12" t="s">
+      <c r="S30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="T30" s="13" t="s">
+      <c r="T30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="U30" s="14" t="s">
+      <c r="U30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W30" s="12" t="s">
+      <c r="W30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="X30" s="13" t="s">
+      <c r="X30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Y30" s="14" t="s">
+      <c r="Y30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AA30" s="12" t="s">
+      <c r="AA30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AB30" s="13" t="s">
+      <c r="AB30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AC30" s="14" t="s">
+      <c r="AC30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AE30" s="69" t="s">
+      <c r="AE30" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AF30" s="70" t="s">
+      <c r="AF30" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AG30" s="71" t="s">
+      <c r="AG30" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="56"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="35"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="35"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="35"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="35"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="35"/>
-      <c r="AE31" s="62"/>
-      <c r="AF31" s="34"/>
-      <c r="AG31" s="63"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="52"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="34"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="34"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="34"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="34"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="34"/>
+      <c r="AE31" s="58"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="59"/>
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="58"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="35"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="35"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="35"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="35"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="35"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="35"/>
-      <c r="AE32" s="62"/>
-      <c r="AF32" s="34"/>
-      <c r="AG32" s="63"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="54"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="34"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="34"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="34"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="34"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="34"/>
+      <c r="AE32" s="58"/>
+      <c r="AF32" s="33"/>
+      <c r="AG32" s="59"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="58"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="35"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="35"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="35"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="35"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="35"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="35"/>
-      <c r="AE33" s="62"/>
-      <c r="AF33" s="34"/>
-      <c r="AG33" s="63"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="54"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="34"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="34"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="34"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="34"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="34"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="34"/>
+      <c r="AE33" s="58"/>
+      <c r="AF33" s="33"/>
+      <c r="AG33" s="59"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="58"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="35"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="35"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="35"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="35"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="35"/>
-      <c r="AE34" s="62"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="63"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="54"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="34"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="34"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="34"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="34"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="34"/>
+      <c r="AE34" s="58"/>
+      <c r="AF34" s="33"/>
+      <c r="AG34" s="59"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="58"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="35"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="35"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="35"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="35"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="35"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="35"/>
-      <c r="AE35" s="62"/>
-      <c r="AF35" s="34"/>
-      <c r="AG35" s="63"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="54"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="34"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="34"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="34"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="34"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="34"/>
+      <c r="AE35" s="58"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="59"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="58"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="35"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="35"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="35"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="35"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="35"/>
-      <c r="AE36" s="62"/>
-      <c r="AF36" s="34"/>
-      <c r="AG36" s="63"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="54"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="34"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="34"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="34"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="34"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="34"/>
+      <c r="AE36" s="58"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="59"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="58"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="35"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="35"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="35"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="35"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="35"/>
-      <c r="AE37" s="62"/>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="63"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="54"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="34"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="34"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="34"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="34"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="34"/>
+      <c r="AE37" s="58"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="59"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="58"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="35"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="35"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="35"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="35"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="35"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="35"/>
-      <c r="AE38" s="62"/>
-      <c r="AF38" s="34"/>
-      <c r="AG38" s="63"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="54"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="34"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="34"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="34"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="34"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="34"/>
+      <c r="AE38" s="58"/>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="59"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="58"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="35"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="35"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="35"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="35"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="35"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="35"/>
-      <c r="AE39" s="62"/>
-      <c r="AF39" s="34"/>
-      <c r="AG39" s="63"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="54"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="34"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="34"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="34"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="34"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="34"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="34"/>
+      <c r="AE39" s="58"/>
+      <c r="AF39" s="33"/>
+      <c r="AG39" s="59"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="58"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="35"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="35"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="35"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="35"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="35"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="35"/>
-      <c r="AE40" s="62"/>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="63"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="54"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="34"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="34"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="34"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="34"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="34"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="34"/>
+      <c r="AE40" s="58"/>
+      <c r="AF40" s="33"/>
+      <c r="AG40" s="59"/>
     </row>
     <row r="41" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="60"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="50"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="50"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="50"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="49"/>
-      <c r="U41" s="50"/>
-      <c r="W41" s="48"/>
-      <c r="X41" s="49"/>
-      <c r="Y41" s="50"/>
-      <c r="AA41" s="48"/>
-      <c r="AB41" s="49"/>
-      <c r="AC41" s="50"/>
-      <c r="AE41" s="66"/>
-      <c r="AF41" s="67"/>
-      <c r="AG41" s="68"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="56"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="49"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="49"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="49"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="49"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="49"/>
+      <c r="AA41" s="47"/>
+      <c r="AB41" s="48"/>
+      <c r="AC41" s="49"/>
+      <c r="AE41" s="62"/>
+      <c r="AF41" s="63"/>
+      <c r="AG41" s="64"/>
     </row>
     <row r="42" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -4684,12 +4754,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D28" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG31:AG41 U7:U28 I31:I41 Q31:Q41 AC31:AC41 I7:I28 M31:M41 M7:M28 AC7:AC28 Y7:Y28 U31:U41 Y31:Y41 Q7:Q28 AG7:AG28" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I28 M7:M28 Q7:Q28 U7:U28 Y7:Y28 AC8 AC7:AC28 AG7:AG28 AG31:AG41 AC31:AC41 Y31:Y41 U31:U41 Q31:Q41 M31:M41 I31:I41" xr:uid="{20620433-9DBC-4768-B616-354B93685ADA}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Weclapp_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Weclapp_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA08D4B-E7E5-497C-BBA3-85B26EC501D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2868571E-96F7-40A1-A0F7-C059625A8405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -114,39 +114,6 @@
     <t>Field Value</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Template-Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Enter name of master-template here]</t>
-    </r>
-  </si>
-  <si>
     <t>this is a note</t>
   </si>
   <si>
@@ -322,13 +289,16 @@
   </si>
   <si>
     <t>weclapp: Additional Entity</t>
+  </si>
+  <si>
+    <t>Grabber Mapping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,13 +325,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1358,14 +1321,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1381,13 +1344,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1395,24 +1358,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -1422,24 +1385,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
@@ -1447,15 +1410,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1478,44 +1441,44 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2648,9 +2611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:BD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF21" sqref="AF21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2676,8 +2637,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
+      <c r="A1" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2686,61 +2647,61 @@
     </row>
     <row r="2" spans="1:56" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:56" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:56" ht="81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="6"/>
+      <c r="G4" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="O4" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="82" t="s">
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="S4" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="W4" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="AA4" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="O4" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="S4" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="W4" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="AA4" s="82" t="s">
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AE4" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="82"/>
-      <c r="AE4" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="85"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="76"/>
     </row>
     <row r="5" spans="1:56" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:56" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2847,34 +2808,34 @@
     </row>
     <row r="8" spans="1:56" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="G8" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="20"/>
       <c r="M8" s="21"/>
       <c r="O8" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R8" s="57"/>
       <c r="S8" s="19"/>
@@ -2882,13 +2843,13 @@
       <c r="U8" s="21"/>
       <c r="V8" s="57"/>
       <c r="W8" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X8" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y8" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z8" s="57"/>
       <c r="AA8" s="32"/>
@@ -2930,37 +2891,37 @@
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
       <c r="G9" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="20"/>
       <c r="M9" s="21"/>
       <c r="O9" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S9" s="19"/>
       <c r="T9" s="20"/>
       <c r="U9" s="21"/>
       <c r="W9" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X9" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y9" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA9" s="32"/>
       <c r="AB9" s="33"/>
@@ -2978,37 +2939,37 @@
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
       <c r="G10" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="20"/>
       <c r="M10" s="21"/>
       <c r="O10" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S10" s="19"/>
       <c r="T10" s="20"/>
       <c r="U10" s="21"/>
       <c r="W10" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X10" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y10" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA10" s="32"/>
       <c r="AB10" s="33"/>
@@ -3019,44 +2980,44 @@
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
       <c r="E11" s="31"/>
       <c r="G11" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="20"/>
       <c r="M11" s="21"/>
       <c r="O11" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S11" s="19"/>
       <c r="T11" s="20"/>
       <c r="U11" s="21"/>
       <c r="W11" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y11" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA11" s="32"/>
       <c r="AB11" s="33"/>
@@ -3067,44 +3028,44 @@
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
       <c r="G12" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="20"/>
       <c r="M12" s="21"/>
       <c r="O12" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S12" s="19"/>
       <c r="T12" s="20"/>
       <c r="U12" s="21"/>
       <c r="W12" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X12" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y12" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA12" s="32"/>
       <c r="AB12" s="33"/>
@@ -3115,53 +3076,53 @@
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
       <c r="D13" s="30"/>
       <c r="E13" s="31"/>
       <c r="G13" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
       <c r="S13" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T13" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W13" s="19"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="21"/>
       <c r="AA13" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB13" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC13" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE13" s="58"/>
       <c r="AF13" s="33"/>
@@ -3169,65 +3130,65 @@
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="29"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
       <c r="G14" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S14" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T14" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U14" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W14" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X14" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y14" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA14" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB14" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC14" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE14" s="58"/>
       <c r="AF14" s="33"/>
@@ -3235,68 +3196,68 @@
     </row>
     <row r="15" spans="1:56" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
       <c r="E15" s="26"/>
       <c r="G15" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L15" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R15" s="57"/>
       <c r="S15" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T15" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V15" s="57"/>
       <c r="W15" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X15" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y15" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z15" s="57"/>
       <c r="AA15" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB15" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC15" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE15" s="58"/>
       <c r="AF15" s="33"/>
@@ -3327,65 +3288,65 @@
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="29"/>
       <c r="D16" s="30"/>
       <c r="E16" s="31"/>
       <c r="G16" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S16" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T16" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W16" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X16" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y16" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA16" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB16" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC16" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE16" s="58"/>
       <c r="AF16" s="33"/>
@@ -3393,65 +3354,65 @@
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="29"/>
       <c r="D17" s="30"/>
       <c r="E17" s="31"/>
       <c r="G17" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S17" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T17" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W17" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X17" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y17" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA17" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB17" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC17" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE17" s="58"/>
       <c r="AF17" s="33"/>
@@ -3459,65 +3420,65 @@
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
       <c r="G18" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T18" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W18" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X18" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y18" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA18" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB18" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC18" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE18" s="58"/>
       <c r="AF18" s="33"/>
@@ -3525,65 +3486,65 @@
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="29"/>
       <c r="D19" s="30"/>
       <c r="E19" s="31"/>
       <c r="G19" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O19" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P19" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S19" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T19" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U19" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W19" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X19" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y19" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA19" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB19" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC19" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE19" s="58"/>
       <c r="AF19" s="33"/>
@@ -3591,65 +3552,65 @@
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="29"/>
       <c r="D20" s="30"/>
       <c r="E20" s="31"/>
       <c r="G20" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O20" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P20" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S20" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T20" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U20" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W20" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X20" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y20" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA20" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB20" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC20" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE20" s="58"/>
       <c r="AF20" s="33"/>
@@ -3667,58 +3628,58 @@
         <v>8</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21" s="32" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O21" s="32" t="s">
         <v>8</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R21" s="57"/>
       <c r="S21" s="32" t="s">
         <v>8</v>
       </c>
       <c r="T21" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V21" s="57"/>
       <c r="W21" s="32" t="s">
         <v>8</v>
       </c>
       <c r="X21" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y21" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z21" s="57"/>
       <c r="AA21" s="32" t="s">
         <v>8</v>
       </c>
       <c r="AB21" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC21" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE21" s="58"/>
       <c r="AF21" s="33"/>
@@ -3756,58 +3717,58 @@
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
       <c r="G22" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T22" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W22" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X22" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y22" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA22" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB22" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC22" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE22" s="58"/>
       <c r="AF22" s="33"/>
@@ -3825,55 +3786,55 @@
         <v>10</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K23" s="19" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O23" s="19" t="s">
         <v>10</v>
       </c>
       <c r="P23" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S23" s="19" t="s">
         <v>10</v>
       </c>
       <c r="T23" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W23" s="19" t="s">
         <v>10</v>
       </c>
       <c r="X23" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y23" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA23" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AB23" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC23" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE23" s="60"/>
       <c r="AF23" s="20"/>
@@ -3881,20 +3842,20 @@
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
       <c r="D24" s="30"/>
       <c r="E24" s="31"/>
       <c r="G24" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K24" s="19"/>
       <c r="L24" s="20"/>
@@ -3917,7 +3878,7 @@
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="39"/>
@@ -3927,22 +3888,22 @@
       <c r="H25" s="20"/>
       <c r="I25" s="21"/>
       <c r="K25" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P25" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S25" s="19"/>
       <c r="T25" s="20"/>
@@ -3959,7 +3920,7 @@
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="39"/>
@@ -3969,40 +3930,40 @@
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
       <c r="K26" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O26" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S26" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T26" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W26" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X26" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y26" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA26" s="19"/>
       <c r="AB26" s="20"/>
@@ -4161,13 +4122,13 @@
     </row>
     <row r="31" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
+        <v>54</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
       <c r="E31" s="52"/>
       <c r="G31" s="32"/>
       <c r="H31" s="33"/>
@@ -4193,13 +4154,13 @@
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75"/>
+        <v>55</v>
+      </c>
+      <c r="B32" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
       <c r="E32" s="54"/>
       <c r="G32" s="32"/>
       <c r="H32" s="33"/>
@@ -4225,13 +4186,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="75"/>
+        <v>56</v>
+      </c>
+      <c r="B33" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
       <c r="E33" s="54"/>
       <c r="G33" s="32"/>
       <c r="H33" s="33"/>
@@ -4257,13 +4218,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="75"/>
+        <v>57</v>
+      </c>
+      <c r="B34" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
       <c r="E34" s="54"/>
       <c r="G34" s="32"/>
       <c r="H34" s="33"/>
@@ -4289,9 +4250,9 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="75"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
       <c r="E35" s="54"/>
       <c r="G35" s="32"/>
       <c r="H35" s="33"/>
@@ -4317,9 +4278,9 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="75"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="54"/>
       <c r="G36" s="32"/>
       <c r="H36" s="33"/>
@@ -4345,9 +4306,9 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="53"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="54"/>
       <c r="G37" s="32"/>
       <c r="H37" s="33"/>
@@ -4373,9 +4334,9 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="53"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="75"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
       <c r="E38" s="54"/>
       <c r="G38" s="32"/>
       <c r="H38" s="33"/>
@@ -4401,9 +4362,9 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="75"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="54"/>
       <c r="G39" s="32"/>
       <c r="H39" s="33"/>
@@ -4429,9 +4390,9 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="53"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="75"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="79"/>
       <c r="E40" s="54"/>
       <c r="G40" s="32"/>
       <c r="H40" s="33"/>
@@ -4457,9 +4418,9 @@
     </row>
     <row r="41" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="55"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="78"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="82"/>
       <c r="E41" s="56"/>
       <c r="G41" s="47"/>
       <c r="H41" s="48"/>
@@ -4491,13 +4452,6 @@
     <protectedRange sqref="A1" name="Titel"/>
   </protectedRanges>
   <mergeCells count="18">
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="S4:U4"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
@@ -4509,6 +4463,13 @@
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B36:D36"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="S4:U4"/>
   </mergeCells>
   <conditionalFormatting sqref="A28:Q29 Z8:Z29 B27:Q27 B8:N26 O7:Q7 O13:Q26 P8:Q12 AD22:AO29 AD21:AG21 AD16:AO20 AD15:AG15 AD10:AO14 AD8:AG9">
     <cfRule type="expression" dxfId="59" priority="163">

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Weclapp_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Weclapp_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289FBA57-6F7C-46E1-869D-19B931DD8629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ECB1C5-2D1D-4BFA-9081-39BE980712AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="Checkbox">Tabelle1!$C$6:$D$27</definedName>
-    <definedName name="Field_Type">Tabelle1!$AG$30:$AG$40,Tabelle1!$AG$6:$AG$24,Tabelle1!$AG$27,Tabelle1!$AC$6:$AC$27,Tabelle1!$AC$30:$AC$40,Tabelle1!$Q$30:$Q$40,Tabelle1!$Q$6:$Q$27,Tabelle1!$M$6:$M$27,Tabelle1!$M$30:$M$40,Tabelle1!$I$30:$I$40,Tabelle1!$I$6:$I$27</definedName>
+    <definedName name="Field_Type">Tabelle1!$AG$30:$AG$38,Tabelle1!$AG$6:$AG$24,Tabelle1!$AG$27,Tabelle1!$AC$6:$AC$27,Tabelle1!$AC$30:$AC$38,Tabelle1!$Q$30:$Q$38,Tabelle1!$Q$6:$Q$27,Tabelle1!$M$6:$M$27,Tabelle1!$M$30:$M$38,Tabelle1!$I$30:$I$38,Tabelle1!$I$6:$I$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="68">
   <si>
     <t>snapADDY</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Field Value</t>
   </si>
   <si>
-    <t>this is a note</t>
-  </si>
-  <si>
     <t>salutation</t>
   </si>
   <si>
@@ -199,24 +196,12 @@
     <t>Vertriebsweg</t>
   </si>
   <si>
-    <t>Kampagnen-ID</t>
-  </si>
-  <si>
-    <t>VR Titel</t>
-  </si>
-  <si>
     <t>Erstellt am (Datum)</t>
   </si>
   <si>
     <t>Erstellt von</t>
   </si>
   <si>
-    <t>Vorlagen-ID</t>
-  </si>
-  <si>
-    <t>Vorlagen Titel</t>
-  </si>
-  <si>
     <t>Erstellzeitpunkt</t>
   </si>
   <si>
@@ -251,6 +236,9 @@
   </si>
   <si>
     <t>weclapp: Lieferant</t>
+  </si>
+  <si>
+    <t>Notizen</t>
   </si>
 </sst>
 </file>
@@ -358,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -728,69 +716,6 @@
         <color rgb="FFFE6C36"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1200,7 +1125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1293,22 +1218,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1318,58 +1259,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="48">
     <dxf>
       <font>
         <b val="0"/>
@@ -1840,162 +1752,8 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2162,7 +1920,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2522,10 +2280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:BD41"/>
+  <dimension ref="A1:BD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI32" sqref="AI32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2553,7 +2311,7 @@
   <sheetData>
     <row r="1" spans="1:56" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:56" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2566,121 +2324,123 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="G3" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="74"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="74"/>
+      <c r="M3" s="75"/>
+      <c r="O3" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="75"/>
+      <c r="S3" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="74"/>
+      <c r="U3" s="75"/>
+      <c r="W3" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="G3" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
-      <c r="O3" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="69"/>
-      <c r="S3" s="67" t="s">
+      <c r="X3" s="74"/>
+      <c r="Y3" s="75"/>
+      <c r="AA3" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="68"/>
-      <c r="U3" s="69"/>
-      <c r="W3" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="69"/>
-      <c r="AA3" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="69"/>
-      <c r="AE3" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="72"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="75"/>
+      <c r="AE3" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="78"/>
     </row>
     <row r="4" spans="1:56" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:56" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="Q5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="49" t="s">
+      <c r="S5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="50" t="s">
+      <c r="T5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="51" t="s">
+      <c r="U5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="49" t="s">
+      <c r="W5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="X5" s="50" t="s">
+      <c r="X5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="51" t="s">
+      <c r="Y5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AA5" s="49" t="s">
+      <c r="AA5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AB5" s="50" t="s">
+      <c r="AB5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="51" t="s">
+      <c r="AC5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AE5" s="73" t="s">
+      <c r="AE5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AF5" s="74" t="s">
+      <c r="AF5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AG5" s="75" t="s">
+      <c r="AG5" s="58" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2690,80 +2450,78 @@
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="54"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="54"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="54"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="54"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="78"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="52"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="52"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="52"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="61"/>
     </row>
     <row r="7" spans="1:56" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>13</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
-      <c r="G7" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="54"/>
-      <c r="O7" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="48"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="X7" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y7" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="54"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="80"/>
+      <c r="G7" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="50"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
+      <c r="O7" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="46"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="X7" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="52"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="63"/>
       <c r="AH7"/>
       <c r="AI7"/>
       <c r="AJ7"/>
@@ -2796,45 +2554,45 @@
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
-      <c r="G8" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="54"/>
-      <c r="O8" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="S8" s="52"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="54"/>
-      <c r="W8" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="X8" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y8" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="54"/>
-      <c r="AE8" s="79"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="80"/>
+      <c r="G8" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="50"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
+      <c r="O8" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="50"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="W8" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="52"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="63"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -2844,330 +2602,330 @@
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
-      <c r="G9" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="54"/>
-      <c r="O9" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="S9" s="52"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="54"/>
-      <c r="W9" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="X9" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y9" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="54"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="80"/>
+      <c r="G9" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="50"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
+      <c r="O9" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="50"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="52"/>
+      <c r="W9" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="52"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="63"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
-      <c r="G10" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="54"/>
-      <c r="O10" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="S10" s="52"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="54"/>
-      <c r="W10" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="X10" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y10" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="54"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="80"/>
+      <c r="G10" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="50"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="O10" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="52"/>
+      <c r="W10" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y10" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="52"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="63"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
-      <c r="G11" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="54"/>
-      <c r="O11" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="S11" s="52"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="54"/>
-      <c r="W11" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="X11" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y11" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="54"/>
-      <c r="AE11" s="79"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="80"/>
+      <c r="G11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="50"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="O11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" s="50"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="52"/>
+      <c r="W11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="52"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="63"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
-      <c r="G12" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="54" t="s">
+      <c r="G12" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="52"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="54"/>
-      <c r="S12" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="T12" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="U12" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="W12" s="52"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="54"/>
-      <c r="AA12" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB12" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC12" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE12" s="79"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="80"/>
+      <c r="I12" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="50"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="52"/>
+      <c r="S12" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="W12" s="50"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="52"/>
+      <c r="AA12" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB12" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC12" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="63"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
-      <c r="G13" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="S13" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="T13" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="U13" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="W13" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="X13" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y13" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA13" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB13" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC13" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="80"/>
+      <c r="G13" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="W13" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X13" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y13" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA13" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB13" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC13" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="63"/>
     </row>
     <row r="14" spans="1:56" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
-      <c r="G14" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="R14" s="48"/>
-      <c r="S14" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="T14" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="U14" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="V14" s="48"/>
-      <c r="W14" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="X14" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y14" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB14" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC14" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="80"/>
+      <c r="G14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="46"/>
+      <c r="S14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="U14" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" s="46"/>
+      <c r="W14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="X14" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y14" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB14" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC14" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="63"/>
       <c r="AH14"/>
       <c r="AI14"/>
       <c r="AJ14"/>
@@ -3194,333 +2952,333 @@
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
-      <c r="G15" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="T15" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="U15" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="W15" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="X15" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y15" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA15" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB15" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC15" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE15" s="79"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="80"/>
+      <c r="G15" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="T15" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="W15" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="X15" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y15" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA15" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB15" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC15" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="63"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
-      <c r="G16" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="T16" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="U16" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="W16" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="X16" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y16" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA16" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB16" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC16" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="53"/>
-      <c r="AG16" s="80"/>
+      <c r="G16" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="S16" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="T16" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="W16" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="X16" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y16" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA16" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB16" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC16" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="63"/>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
       <c r="E17" s="25"/>
-      <c r="G17" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="S17" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="T17" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="U17" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="W17" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="X17" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y17" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA17" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB17" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC17" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="53"/>
-      <c r="AG17" s="80"/>
+      <c r="G17" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="T17" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="W17" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="X17" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y17" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA17" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB17" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC17" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="63"/>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>
       <c r="E18" s="25"/>
-      <c r="G18" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="P18" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q18" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="S18" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="T18" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="U18" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="W18" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="X18" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y18" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA18" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB18" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC18" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="53"/>
-      <c r="AG18" s="80"/>
+      <c r="G18" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="S18" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="W18" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y18" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA18" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB18" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC18" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="63"/>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
       <c r="D19" s="24"/>
       <c r="E19" s="25"/>
-      <c r="G19" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="P19" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="S19" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="T19" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="U19" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="W19" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="X19" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y19" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA19" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB19" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC19" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="53"/>
-      <c r="AG19" s="80"/>
+      <c r="G19" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="T19" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="U19" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="X19" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y19" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA19" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB19" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC19" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="63"/>
     </row>
     <row r="20" spans="1:56" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
@@ -3530,66 +3288,66 @@
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
-      <c r="G20" s="52" t="s">
+      <c r="G20" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="52" t="s">
+      <c r="H20" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="O20" s="52" t="s">
+      <c r="L20" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="P20" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q20" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="R20" s="48"/>
-      <c r="S20" s="52" t="s">
+      <c r="P20" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="46"/>
+      <c r="S20" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="T20" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="U20" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="48"/>
-      <c r="W20" s="52" t="s">
+      <c r="T20" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="V20" s="46"/>
+      <c r="W20" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="X20" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y20" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="52" t="s">
+      <c r="X20" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y20" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AB20" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC20" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="53"/>
-      <c r="AG20" s="80"/>
+      <c r="AB20" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC20" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="51"/>
+      <c r="AG20" s="63"/>
       <c r="AH20"/>
       <c r="AI20"/>
       <c r="AJ20"/>
@@ -3622,63 +3380,63 @@
       <c r="C21" s="23"/>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
-      <c r="G21" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="P21" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="S21" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="T21" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="U21" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="W21" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="X21" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y21" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA21" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB21" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC21" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE21" s="79"/>
-      <c r="AF21" s="53"/>
-      <c r="AG21" s="80"/>
+      <c r="G21" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="X21" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y21" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA21" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB21" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC21" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="51"/>
+      <c r="AG21" s="63"/>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
@@ -3688,195 +3446,195 @@
       <c r="C22" s="23"/>
       <c r="D22" s="24"/>
       <c r="E22" s="25"/>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="52" t="s">
+      <c r="H22" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="O22" s="52" t="s">
+      <c r="L22" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q22" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="S22" s="52" t="s">
+      <c r="P22" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="S22" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="U22" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="W22" s="52" t="s">
+      <c r="T22" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="U22" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="W22" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="X22" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y22" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA22" s="52" t="s">
+      <c r="X22" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y22" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA22" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AB22" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC22" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE22" s="79"/>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="80"/>
+      <c r="AB22" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC22" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="63"/>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
       <c r="E23" s="25"/>
-      <c r="G23" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="54"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="54"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="54"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="54"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="54"/>
-      <c r="AE23" s="79"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="80"/>
+      <c r="G23" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="50"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="52"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="52"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="52"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="52"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="52"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="63"/>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="30"/>
       <c r="D24" s="31"/>
       <c r="E24" s="32"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
-      <c r="K24" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="P24" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="S24" s="52"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="54"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="54"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="54"/>
-      <c r="AE24" s="79"/>
-      <c r="AF24" s="53"/>
-      <c r="AG24" s="80"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
+      <c r="K24" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" s="50"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="52"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="52"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="52"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="51"/>
+      <c r="AG24" s="63"/>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="30"/>
       <c r="D25" s="31"/>
       <c r="E25" s="32"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
-      <c r="K25" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="L25" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q25" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="S25" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="T25" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="U25" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="W25" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="X25" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y25" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="54"/>
-      <c r="AE25" s="79"/>
-      <c r="AF25" s="53"/>
-      <c r="AG25" s="80"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+      <c r="K25" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="T25" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="X25" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y25" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="52"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="51"/>
+      <c r="AG25" s="63"/>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
@@ -3884,27 +3642,27 @@
       <c r="C26" s="30"/>
       <c r="D26" s="31"/>
       <c r="E26" s="32"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="54"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="54"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="54"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="54"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="54"/>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="53"/>
-      <c r="AG26" s="80"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="52"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="52"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="52"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="52"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="52"/>
+      <c r="AE26" s="62"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="63"/>
     </row>
     <row r="27" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33"/>
@@ -3912,27 +3670,27 @@
       <c r="C27" s="35"/>
       <c r="D27" s="36"/>
       <c r="E27" s="37"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="57"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="57"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="57"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="57"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="57"/>
-      <c r="AA27" s="55"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="57"/>
-      <c r="AE27" s="81"/>
-      <c r="AF27" s="82"/>
-      <c r="AG27" s="83"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="55"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="55"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="55"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="55"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="65"/>
+      <c r="AG27" s="66"/>
     </row>
     <row r="28" spans="1:56" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G28" s="38"/>
@@ -3950,7 +3708,7 @@
       <c r="AE28" s="38"/>
       <c r="AG28" s="39"/>
     </row>
-    <row r="29" spans="1:56" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
         <v>11</v>
       </c>
@@ -3962,401 +3720,337 @@
       <c r="E29" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="51" t="s">
+      <c r="I29" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="49" t="s">
+      <c r="K29" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="50" t="s">
+      <c r="L29" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="51" t="s">
+      <c r="M29" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="49" t="s">
+      <c r="O29" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="50" t="s">
+      <c r="P29" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="51" t="s">
+      <c r="Q29" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="49" t="s">
+      <c r="S29" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="T29" s="50" t="s">
+      <c r="T29" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="U29" s="51" t="s">
+      <c r="U29" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="49" t="s">
+      <c r="W29" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="X29" s="50" t="s">
+      <c r="X29" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="51" t="s">
+      <c r="Y29" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AA29" s="49" t="s">
+      <c r="AA29" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AB29" s="50" t="s">
+      <c r="AB29" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AC29" s="51" t="s">
+      <c r="AC29" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AE29" s="73" t="s">
+      <c r="AE29" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AF29" s="74" t="s">
+      <c r="AF29" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AG29" s="75" t="s">
+      <c r="AG29" s="58" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
+        <v>53</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="43"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="54"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="54"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="54"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="54"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="54"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="53"/>
-      <c r="AC30" s="54"/>
-      <c r="AE30" s="76"/>
-      <c r="AF30" s="77"/>
-      <c r="AG30" s="78"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="52"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="52"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="52"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="52"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="52"/>
+      <c r="AE30" s="62"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="63"/>
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="45"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="54"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="54"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="54"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="54"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="54"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="54"/>
-      <c r="AE31" s="79"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="80"/>
+      <c r="A31" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="43"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="52"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="52"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="52"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="52"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="52"/>
+      <c r="AE31" s="62"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="63"/>
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="45"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="54"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="54"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="54"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="54"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="54"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="53"/>
-      <c r="AC32" s="54"/>
-      <c r="AE32" s="79"/>
-      <c r="AF32" s="53"/>
-      <c r="AG32" s="80"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="43"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="52"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="52"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="52"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="52"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="52"/>
+      <c r="AE32" s="62"/>
+      <c r="AF32" s="51"/>
+      <c r="AG32" s="63"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="45"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="54"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="54"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="54"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="54"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="54"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="54"/>
-      <c r="AE33" s="79"/>
-      <c r="AF33" s="53"/>
-      <c r="AG33" s="80"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="43"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="52"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="52"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="52"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="52"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="52"/>
+      <c r="AE33" s="62"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="63"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="45"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="54"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="54"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="54"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="54"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="54"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="53"/>
-      <c r="AC34" s="54"/>
-      <c r="AE34" s="79"/>
-      <c r="AF34" s="53"/>
-      <c r="AG34" s="80"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="43"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="52"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="52"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="52"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="52"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="52"/>
+      <c r="AE34" s="62"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="63"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="45"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="54"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="54"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="54"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="54"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="54"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="53"/>
-      <c r="AC35" s="54"/>
-      <c r="AE35" s="79"/>
-      <c r="AF35" s="53"/>
-      <c r="AG35" s="80"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="43"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="52"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="52"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="52"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="52"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="52"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="52"/>
+      <c r="AE35" s="62"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="63"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="45"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="54"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="54"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="54"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="54"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="54"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="54"/>
-      <c r="AE36" s="79"/>
-      <c r="AF36" s="53"/>
-      <c r="AG36" s="80"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="43"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="52"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="52"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="52"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="52"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="52"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="51"/>
+      <c r="AC36" s="52"/>
+      <c r="AE36" s="62"/>
+      <c r="AF36" s="51"/>
+      <c r="AG36" s="63"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="45"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="54"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="54"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="54"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="54"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="54"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="54"/>
-      <c r="AE37" s="79"/>
-      <c r="AF37" s="53"/>
-      <c r="AG37" s="80"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="43"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="52"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="52"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="52"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="52"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="52"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="52"/>
+      <c r="AE37" s="62"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="63"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="45"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="54"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="54"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="54"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="54"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="54"/>
-      <c r="AA38" s="52"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="54"/>
-      <c r="AE38" s="79"/>
-      <c r="AF38" s="53"/>
-      <c r="AG38" s="80"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="55"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="55"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="55"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="55"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="55"/>
+      <c r="AA38" s="53"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="55"/>
+      <c r="AE38" s="64"/>
+      <c r="AF38" s="65"/>
+      <c r="AG38" s="66"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="45"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="54"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="54"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="54"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="54"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="54"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="54"/>
-      <c r="AE39" s="79"/>
-      <c r="AF39" s="53"/>
-      <c r="AG39" s="80"/>
-    </row>
-    <row r="40" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="46"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="47"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="57"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="57"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="57"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="57"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="57"/>
-      <c r="AA40" s="55"/>
-      <c r="AB40" s="56"/>
-      <c r="AC40" s="57"/>
-      <c r="AE40" s="81"/>
-      <c r="AF40" s="82"/>
-      <c r="AG40" s="83"/>
-    </row>
-    <row r="41" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A6:AF27" name="Contact Fields"/>
-    <protectedRange sqref="A30:AG40" name="Questionnaire"/>
+    <protectedRange sqref="A30:AG38" name="Questionnaire"/>
   </protectedRanges>
-  <mergeCells count="18">
+  <mergeCells count="16">
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
@@ -4364,255 +4058,205 @@
     <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B35:D35"/>
   </mergeCells>
   <conditionalFormatting sqref="A27:Q28 Z7:Z28 B26:Q26 B7:N25 O6:Q6 O12:Q25 P7:Q11 AD21:AO28 AD20:AG20 AD15:AO19 AD14:AG14 AD9:AO13 AD7:AG8">
-    <cfRule type="expression" dxfId="61" priority="163">
+    <cfRule type="expression" dxfId="47" priority="163">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="164">
+    <cfRule type="expression" dxfId="46" priority="164">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE30:AG40">
-    <cfRule type="expression" dxfId="59" priority="161">
+  <conditionalFormatting sqref="AE30:AG38 K30:M38 O30:Q38 AA30:AC38 G30:I38 S30:U38 W30:Y38">
+    <cfRule type="expression" dxfId="45" priority="161">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="162">
-      <formula>$D30="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30:M40">
-    <cfRule type="expression" dxfId="57" priority="155">
-      <formula>$C30="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="156">
-      <formula>$D30="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:Q40">
-    <cfRule type="expression" dxfId="55" priority="157">
-      <formula>$C30="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="158">
-      <formula>$D30="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA30:AC40">
-    <cfRule type="expression" dxfId="53" priority="143">
-      <formula>$C30="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="144">
-      <formula>$D30="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:I40">
-    <cfRule type="expression" dxfId="51" priority="153">
-      <formula>$C30="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="154">
+    <cfRule type="expression" dxfId="44" priority="162">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A26">
-    <cfRule type="expression" dxfId="49" priority="151">
+    <cfRule type="expression" dxfId="43" priority="151">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="152">
+    <cfRule type="expression" dxfId="42" priority="152">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7:AC11 AA23:AC28 AB12 AB18:AB22">
-    <cfRule type="expression" dxfId="47" priority="145">
+    <cfRule type="expression" dxfId="41" priority="145">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="146">
+    <cfRule type="expression" dxfId="40" priority="146">
       <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S30:U40">
-    <cfRule type="expression" dxfId="45" priority="137">
-      <formula>$C30="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="138">
-      <formula>$D30="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W30:Y40">
-    <cfRule type="expression" dxfId="43" priority="131">
-      <formula>$C30="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="132">
-      <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:R28">
-    <cfRule type="expression" dxfId="41" priority="141">
+    <cfRule type="expression" dxfId="39" priority="141">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="142">
+    <cfRule type="expression" dxfId="38" priority="142">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:U12 S23:U28 T18:T22 U13:U22">
-    <cfRule type="expression" dxfId="39" priority="139">
+    <cfRule type="expression" dxfId="37" priority="139">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="140">
+    <cfRule type="expression" dxfId="36" priority="140">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7:V28">
-    <cfRule type="expression" dxfId="37" priority="135">
+    <cfRule type="expression" dxfId="35" priority="135">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="136">
+    <cfRule type="expression" dxfId="34" priority="136">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:Y12 W23:Y24 W7:X11 X18:X22 X25:Y25 W26:Y28">
-    <cfRule type="expression" dxfId="35" priority="133">
+    <cfRule type="expression" dxfId="33" priority="133">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="134">
+    <cfRule type="expression" dxfId="32" priority="134">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13:T17">
-    <cfRule type="expression" dxfId="33" priority="129">
+    <cfRule type="expression" dxfId="31" priority="129">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="130">
+    <cfRule type="expression" dxfId="30" priority="130">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X17">
-    <cfRule type="expression" dxfId="31" priority="127">
+    <cfRule type="expression" dxfId="29" priority="127">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="128">
+    <cfRule type="expression" dxfId="28" priority="128">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13:AB17">
-    <cfRule type="expression" dxfId="29" priority="125">
+    <cfRule type="expression" dxfId="27" priority="125">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="126">
+    <cfRule type="expression" dxfId="26" priority="126">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y7:Y11 Y13:Y22">
-    <cfRule type="expression" dxfId="27" priority="121">
+    <cfRule type="expression" dxfId="25" priority="121">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="122">
+    <cfRule type="expression" dxfId="24" priority="122">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12:AC22">
-    <cfRule type="expression" dxfId="25" priority="119">
+    <cfRule type="expression" dxfId="23" priority="119">
       <formula>$C12="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="120">
+    <cfRule type="expression" dxfId="22" priority="120">
       <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="expression" dxfId="23" priority="111">
+    <cfRule type="expression" dxfId="21" priority="111">
       <formula>$C25="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="112">
+    <cfRule type="expression" dxfId="20" priority="112">
       <formula>$D25="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S22">
-    <cfRule type="expression" dxfId="21" priority="107">
+    <cfRule type="expression" dxfId="19" priority="107">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="108">
+    <cfRule type="expression" dxfId="18" priority="108">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13:W22">
-    <cfRule type="expression" dxfId="19" priority="105">
+    <cfRule type="expression" dxfId="17" priority="105">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="106">
+    <cfRule type="expression" dxfId="16" priority="106">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12">
-    <cfRule type="expression" dxfId="17" priority="101">
+    <cfRule type="expression" dxfId="15" priority="101">
       <formula>$C12="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="102">
+    <cfRule type="expression" dxfId="14" priority="102">
       <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA22">
-    <cfRule type="expression" dxfId="15" priority="99">
+    <cfRule type="expression" dxfId="13" priority="99">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="100">
+    <cfRule type="expression" dxfId="12" priority="100">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:O11">
-    <cfRule type="expression" dxfId="13" priority="97">
+    <cfRule type="expression" dxfId="11" priority="97">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="98">
+    <cfRule type="expression" dxfId="10" priority="98">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH20:AO20">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$C20="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>$D20="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH14:AO14">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>$C14="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>$D14="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH8:AO8">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AO7">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3:AO3">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$C3="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$D3="x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4620,7 +4264,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D27" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG27 AG30:AG40 AC30:AC40 AC6:AC27 I29:I40 Y30:Y40 U30:U40 U6:U27 Q6:Q27 Q30:Q40 M30:M40 M6:M27 I6:I27 Y6:Y27" xr:uid="{6781E31C-3C54-43DA-9309-5CEB30F9E64D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG27 AC6:AC27 U6:U27 Q6:Q27 M6:M27 I6:I27 Y6:Y27 AG30:AG38 AC30:AC38 I29:I38 Y30:Y38 U30:U38 Q30:Q38 M30:M38" xr:uid="{6781E31C-3C54-43DA-9309-5CEB30F9E64D}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
